--- a/inflation.xlsx
+++ b/inflation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519E2ABD-D665-4D24-8A46-D01C5CB6AE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752A7907-654C-4510-AD84-C219FB375535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
@@ -41,10 +41,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="[$-160429]dd/mm/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="[$-960429]d\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="173" formatCode="0.000000000"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="[$-160429]dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-960429]d\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="0.000000000"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -190,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -204,25 +205,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,8 +537,8 @@
   <dimension ref="A1:F517"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A504" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C512" sqref="C512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="24.75" customHeight="1"/>
@@ -6671,7 +6678,9 @@
       <c r="B511" s="2">
         <v>6</v>
       </c>
-      <c r="C511" s="11"/>
+      <c r="C511" s="14">
+        <v>264.1296766393167</v>
+      </c>
       <c r="E511" s="7"/>
     </row>
     <row r="512" spans="1:6" ht="24.75" customHeight="1" thickBot="1">
@@ -6681,7 +6690,9 @@
       <c r="B512" s="2">
         <v>7</v>
       </c>
-      <c r="C512" s="11"/>
+      <c r="C512" s="15">
+        <v>271.18793078021889</v>
+      </c>
       <c r="E512" s="7"/>
     </row>
     <row r="513" spans="1:5" ht="24.75" customHeight="1" thickBot="1">
